--- a/dataCleaner/Case-MovingDataInRoom/figures/tag0_2022-02-03_time.xlsx
+++ b/dataCleaner/Case-MovingDataInRoom/figures/tag0_2022-02-03_time.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44595.33958333333</v>
+        <v>44595.33055555556</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44595.35694444444</v>
+        <v>44595.36006944445</v>
       </c>
     </row>
     <row r="3">
@@ -457,10 +457,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44595.37916666667</v>
+        <v>44595.37951388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44595.47916666666</v>
+        <v>44595.69826388889</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44595.49444444444</v>
+        <v>44595.72291666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44595.50486111111</v>
+        <v>44595.79305555556</v>
       </c>
     </row>
     <row r="5">
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44595.52013888889</v>
+        <v>44595.80173611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44595.56666666667</v>
+        <v>44595.80416666667</v>
       </c>
     </row>
     <row r="6">
@@ -490,307 +490,109 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44595.58333333334</v>
+        <v>44595.85069444445</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44595.61527777778</v>
+        <v>44595.96041666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44595.62291666667</v>
+        <v>44595.36041666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44595.62708333333</v>
+        <v>44595.37916666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44595.64513888889</v>
+        <v>44595.69895833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44595.69791666666</v>
+        <v>44595.72222222222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44595.72430555556</v>
+        <v>44595.79375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44595.72847222222</v>
+        <v>44595.80104166667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44595.74375</v>
+        <v>44595.85659722222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44595.75625</v>
+        <v>44595.859375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44595.76597222222</v>
+        <v>44595.80243055556</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44595.79236111111</v>
+        <v>44595.86215277778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44595.80138888889</v>
+        <v>44595.38125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44595.80208333334</v>
+        <v>44595.38402777778</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44595.85069444445</v>
+        <v>44595.64236111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44595.95972222222</v>
+        <v>44595.64409722222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44595.36041666667</v>
+        <v>44595.43402777778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44595.37847222222</v>
+        <v>44595.43506944444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44595.69861111111</v>
+        <v>44595.62777777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44595.72152777778</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44595.79375</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>44595.80069444444</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44595.85625</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>44595.85902777778</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44595.72916666666</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>44595.73611111111</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44595.80277777778</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>44595.85486111111</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44595.33055555556</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>44595.35972222222</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44595.38402777778</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>44595.39375</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44595.42013888889</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>44595.42361111111</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44595.47986111111</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>44595.49236111111</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44595.50625</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>44595.51944444444</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44595.5625</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>44595.58263888889</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44595.61597222222</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>44595.62222222222</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44595.63125</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>44595.64166666667</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>44595.67013888889</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>44595.67291666667</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44595.73819444444</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>44595.74583333333</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>44595.75347222222</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>44595.77291666667</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>44595.78958333333</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>44595.79166666666</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>44595.94583333333</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>44595.96041666667</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>44595.38125</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>44595.38819444444</v>
+        <v>44595.62881944444</v>
       </c>
     </row>
   </sheetData>
